--- a/python/poem_sheet.xlsx
+++ b/python/poem_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15af934037801f6f/Documents/Werk/Dataviz/sonnet_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15af934037801f6f/Documents/Werk/Dataviz/sonnet-project/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{5AC2DC29-B378-4791-BCA5-CADB9899270C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{519C42B4-2213-4DBC-9C7A-65ACC091F301}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{5AC2DC29-B378-4791-BCA5-CADB9899270C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36BBE63E-556D-4BFF-A5CA-CF3F5A93D167}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{1B573E7B-E94D-4825-82D8-E86FCBB3A821}"/>
+    <workbookView xWindow="5856" yWindow="-90" windowWidth="17280" windowHeight="8904" activeTab="1" xr2:uid="{1B573E7B-E94D-4825-82D8-E86FCBB3A821}"/>
   </bookViews>
   <sheets>
     <sheet name="TUD" sheetId="1" r:id="rId1"/>
@@ -1951,7 +1951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B32DB0-580C-4E64-9D9C-131ADA89422B}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
@@ -2807,11 +2807,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E417CFC-6E12-41E1-B55D-AEDCAA133E06}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="34.9453125" customWidth="1"/>
+    <col min="2" max="2" width="36.5234375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
